--- a/CodeSystem-quarantine-station-system.xlsx
+++ b/CodeSystem-quarantine-station-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>20</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,16 +129,85 @@
     <t>1</t>
   </si>
   <si>
-    <t>LAX</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Miami, FL</t>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>ElPaso</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>LosAngeles</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>SanDiego</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>SanFrancisco</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>SanJuan</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WashingtonDC</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
   </si>
 </sst>
 </file>
@@ -439,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +536,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -476,12 +545,228 @@
         <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
